--- a/final_mapped.xlsx
+++ b/final_mapped.xlsx
@@ -1,15 +1,23 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
   <workbookPr defaultThemeVersion="124226"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\HP\Documents\Aurangabad_2020\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="240" yWindow="15" windowWidth="16095" windowHeight="9660"/>
+    <workbookView xWindow="240" yWindow="12" windowWidth="16092" windowHeight="9660"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="124519" fullCalcOnLoad="1"/>
+  <definedNames>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet1!$A$1:$N$323</definedName>
+  </definedNames>
+  <calcPr calcId="124519"/>
 </workbook>
 </file>
 
@@ -2002,8 +2010,8 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -2066,6 +2074,14 @@
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
@@ -2112,7 +2128,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria"/>
+        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -2144,9 +2160,10 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -2178,6 +2195,7 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -2353,14 +2371,32 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:N323"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C1" sqref="C1"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="79.5546875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="11" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="14" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="59.44140625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="9.6640625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="59.44140625" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="12.44140625" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="59.44140625" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="10.44140625" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="52.6640625" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="11.77734375" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="52.6640625" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="10" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="11.109375" bestFit="1" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="1" spans="1:14">
+    <row r="1" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -2404,7 +2440,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="2" spans="1:14">
+    <row r="2" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>14</v>
       </c>
@@ -2448,7 +2484,7 @@
         <v>659</v>
       </c>
     </row>
-    <row r="3" spans="1:14">
+    <row r="3" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>15</v>
       </c>
@@ -2492,7 +2528,7 @@
         <v>659</v>
       </c>
     </row>
-    <row r="4" spans="1:14">
+    <row r="4" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
         <v>16</v>
       </c>
@@ -2536,7 +2572,7 @@
         <v>659</v>
       </c>
     </row>
-    <row r="5" spans="1:14">
+    <row r="5" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
         <v>17</v>
       </c>
@@ -2580,7 +2616,7 @@
         <v>659</v>
       </c>
     </row>
-    <row r="6" spans="1:14">
+    <row r="6" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
         <v>18</v>
       </c>
@@ -2624,7 +2660,7 @@
         <v>659</v>
       </c>
     </row>
-    <row r="7" spans="1:14">
+    <row r="7" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
         <v>19</v>
       </c>
@@ -2668,7 +2704,7 @@
         <v>659</v>
       </c>
     </row>
-    <row r="8" spans="1:14">
+    <row r="8" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
         <v>20</v>
       </c>
@@ -2712,7 +2748,7 @@
         <v>659</v>
       </c>
     </row>
-    <row r="9" spans="1:14">
+    <row r="9" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
         <v>21</v>
       </c>
@@ -2756,7 +2792,7 @@
         <v>659</v>
       </c>
     </row>
-    <row r="10" spans="1:14">
+    <row r="10" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
         <v>22</v>
       </c>
@@ -2800,7 +2836,7 @@
         <v>659</v>
       </c>
     </row>
-    <row r="11" spans="1:14">
+    <row r="11" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
         <v>23</v>
       </c>
@@ -2844,7 +2880,7 @@
         <v>659</v>
       </c>
     </row>
-    <row r="12" spans="1:14">
+    <row r="12" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
         <v>24</v>
       </c>
@@ -2888,7 +2924,7 @@
         <v>659</v>
       </c>
     </row>
-    <row r="13" spans="1:14">
+    <row r="13" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
         <v>25</v>
       </c>
@@ -2932,7 +2968,7 @@
         <v>659</v>
       </c>
     </row>
-    <row r="14" spans="1:14">
+    <row r="14" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A14" t="s">
         <v>26</v>
       </c>
@@ -2976,7 +3012,7 @@
         <v>659</v>
       </c>
     </row>
-    <row r="15" spans="1:14">
+    <row r="15" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A15" t="s">
         <v>27</v>
       </c>
@@ -3020,7 +3056,7 @@
         <v>659</v>
       </c>
     </row>
-    <row r="16" spans="1:14">
+    <row r="16" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A16" t="s">
         <v>28</v>
       </c>
@@ -3064,7 +3100,7 @@
         <v>659</v>
       </c>
     </row>
-    <row r="17" spans="1:14">
+    <row r="17" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A17" t="s">
         <v>29</v>
       </c>
@@ -3108,7 +3144,7 @@
         <v>659</v>
       </c>
     </row>
-    <row r="18" spans="1:14">
+    <row r="18" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A18" t="s">
         <v>30</v>
       </c>
@@ -3152,7 +3188,7 @@
         <v>659</v>
       </c>
     </row>
-    <row r="19" spans="1:14">
+    <row r="19" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A19" t="s">
         <v>31</v>
       </c>
@@ -3196,7 +3232,7 @@
         <v>659</v>
       </c>
     </row>
-    <row r="20" spans="1:14">
+    <row r="20" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A20" t="s">
         <v>32</v>
       </c>
@@ -3240,7 +3276,7 @@
         <v>659</v>
       </c>
     </row>
-    <row r="21" spans="1:14">
+    <row r="21" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A21" t="s">
         <v>33</v>
       </c>
@@ -3284,7 +3320,7 @@
         <v>659</v>
       </c>
     </row>
-    <row r="22" spans="1:14">
+    <row r="22" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A22" t="s">
         <v>34</v>
       </c>
@@ -3328,7 +3364,7 @@
         <v>659</v>
       </c>
     </row>
-    <row r="23" spans="1:14">
+    <row r="23" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A23" t="s">
         <v>35</v>
       </c>
@@ -3372,7 +3408,7 @@
         <v>659</v>
       </c>
     </row>
-    <row r="24" spans="1:14">
+    <row r="24" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A24" t="s">
         <v>36</v>
       </c>
@@ -3416,7 +3452,7 @@
         <v>659</v>
       </c>
     </row>
-    <row r="25" spans="1:14">
+    <row r="25" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A25" t="s">
         <v>37</v>
       </c>
@@ -3460,7 +3496,7 @@
         <v>659</v>
       </c>
     </row>
-    <row r="26" spans="1:14">
+    <row r="26" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A26" t="s">
         <v>38</v>
       </c>
@@ -3504,7 +3540,7 @@
         <v>659</v>
       </c>
     </row>
-    <row r="27" spans="1:14">
+    <row r="27" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A27" t="s">
         <v>39</v>
       </c>
@@ -3548,7 +3584,7 @@
         <v>659</v>
       </c>
     </row>
-    <row r="28" spans="1:14">
+    <row r="28" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A28" t="s">
         <v>40</v>
       </c>
@@ -3592,7 +3628,7 @@
         <v>659</v>
       </c>
     </row>
-    <row r="29" spans="1:14">
+    <row r="29" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A29" t="s">
         <v>41</v>
       </c>
@@ -3636,7 +3672,7 @@
         <v>659</v>
       </c>
     </row>
-    <row r="30" spans="1:14">
+    <row r="30" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A30" t="s">
         <v>42</v>
       </c>
@@ -3680,7 +3716,7 @@
         <v>659</v>
       </c>
     </row>
-    <row r="31" spans="1:14">
+    <row r="31" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A31" t="s">
         <v>43</v>
       </c>
@@ -3724,7 +3760,7 @@
         <v>659</v>
       </c>
     </row>
-    <row r="32" spans="1:14">
+    <row r="32" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A32" t="s">
         <v>44</v>
       </c>
@@ -3768,7 +3804,7 @@
         <v>659</v>
       </c>
     </row>
-    <row r="33" spans="1:14">
+    <row r="33" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A33" t="s">
         <v>45</v>
       </c>
@@ -3812,7 +3848,7 @@
         <v>659</v>
       </c>
     </row>
-    <row r="34" spans="1:14">
+    <row r="34" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A34" t="s">
         <v>46</v>
       </c>
@@ -3856,7 +3892,7 @@
         <v>659</v>
       </c>
     </row>
-    <row r="35" spans="1:14">
+    <row r="35" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A35" t="s">
         <v>47</v>
       </c>
@@ -3900,7 +3936,7 @@
         <v>659</v>
       </c>
     </row>
-    <row r="36" spans="1:14">
+    <row r="36" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A36" t="s">
         <v>48</v>
       </c>
@@ -3944,7 +3980,7 @@
         <v>659</v>
       </c>
     </row>
-    <row r="37" spans="1:14">
+    <row r="37" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A37" t="s">
         <v>49</v>
       </c>
@@ -3988,7 +4024,7 @@
         <v>659</v>
       </c>
     </row>
-    <row r="38" spans="1:14">
+    <row r="38" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A38" t="s">
         <v>50</v>
       </c>
@@ -4032,7 +4068,7 @@
         <v>659</v>
       </c>
     </row>
-    <row r="39" spans="1:14">
+    <row r="39" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A39" t="s">
         <v>51</v>
       </c>
@@ -4076,7 +4112,7 @@
         <v>659</v>
       </c>
     </row>
-    <row r="40" spans="1:14">
+    <row r="40" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A40" t="s">
         <v>52</v>
       </c>
@@ -4120,7 +4156,7 @@
         <v>659</v>
       </c>
     </row>
-    <row r="41" spans="1:14">
+    <row r="41" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A41" t="s">
         <v>53</v>
       </c>
@@ -4164,7 +4200,7 @@
         <v>659</v>
       </c>
     </row>
-    <row r="42" spans="1:14">
+    <row r="42" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A42" t="s">
         <v>54</v>
       </c>
@@ -4208,7 +4244,7 @@
         <v>659</v>
       </c>
     </row>
-    <row r="43" spans="1:14">
+    <row r="43" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A43" t="s">
         <v>55</v>
       </c>
@@ -4252,7 +4288,7 @@
         <v>659</v>
       </c>
     </row>
-    <row r="44" spans="1:14">
+    <row r="44" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A44" t="s">
         <v>56</v>
       </c>
@@ -4296,7 +4332,7 @@
         <v>659</v>
       </c>
     </row>
-    <row r="45" spans="1:14">
+    <row r="45" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A45" t="s">
         <v>57</v>
       </c>
@@ -4340,7 +4376,7 @@
         <v>659</v>
       </c>
     </row>
-    <row r="46" spans="1:14">
+    <row r="46" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A46" t="s">
         <v>58</v>
       </c>
@@ -4384,7 +4420,7 @@
         <v>659</v>
       </c>
     </row>
-    <row r="47" spans="1:14">
+    <row r="47" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A47" t="s">
         <v>59</v>
       </c>
@@ -4428,7 +4464,7 @@
         <v>659</v>
       </c>
     </row>
-    <row r="48" spans="1:14">
+    <row r="48" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A48" t="s">
         <v>60</v>
       </c>
@@ -4472,7 +4508,7 @@
         <v>659</v>
       </c>
     </row>
-    <row r="49" spans="1:14">
+    <row r="49" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A49" t="s">
         <v>61</v>
       </c>
@@ -4516,7 +4552,7 @@
         <v>659</v>
       </c>
     </row>
-    <row r="50" spans="1:14">
+    <row r="50" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A50" t="s">
         <v>62</v>
       </c>
@@ -4560,7 +4596,7 @@
         <v>659</v>
       </c>
     </row>
-    <row r="51" spans="1:14">
+    <row r="51" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A51" t="s">
         <v>63</v>
       </c>
@@ -4604,7 +4640,7 @@
         <v>659</v>
       </c>
     </row>
-    <row r="52" spans="1:14">
+    <row r="52" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A52" t="s">
         <v>64</v>
       </c>
@@ -4648,7 +4684,7 @@
         <v>659</v>
       </c>
     </row>
-    <row r="53" spans="1:14">
+    <row r="53" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A53" t="s">
         <v>65</v>
       </c>
@@ -4692,7 +4728,7 @@
         <v>659</v>
       </c>
     </row>
-    <row r="54" spans="1:14">
+    <row r="54" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A54" t="s">
         <v>66</v>
       </c>
@@ -4736,7 +4772,7 @@
         <v>659</v>
       </c>
     </row>
-    <row r="55" spans="1:14">
+    <row r="55" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A55" t="s">
         <v>67</v>
       </c>
@@ -4780,7 +4816,7 @@
         <v>659</v>
       </c>
     </row>
-    <row r="56" spans="1:14">
+    <row r="56" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A56" t="s">
         <v>68</v>
       </c>
@@ -4824,7 +4860,7 @@
         <v>659</v>
       </c>
     </row>
-    <row r="57" spans="1:14">
+    <row r="57" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A57" t="s">
         <v>69</v>
       </c>
@@ -4868,7 +4904,7 @@
         <v>659</v>
       </c>
     </row>
-    <row r="58" spans="1:14">
+    <row r="58" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A58" t="s">
         <v>70</v>
       </c>
@@ -4912,7 +4948,7 @@
         <v>659</v>
       </c>
     </row>
-    <row r="59" spans="1:14">
+    <row r="59" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A59" t="s">
         <v>71</v>
       </c>
@@ -4956,7 +4992,7 @@
         <v>659</v>
       </c>
     </row>
-    <row r="60" spans="1:14">
+    <row r="60" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A60" t="s">
         <v>72</v>
       </c>
@@ -5000,7 +5036,7 @@
         <v>659</v>
       </c>
     </row>
-    <row r="61" spans="1:14">
+    <row r="61" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A61" t="s">
         <v>73</v>
       </c>
@@ -5044,7 +5080,7 @@
         <v>659</v>
       </c>
     </row>
-    <row r="62" spans="1:14">
+    <row r="62" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A62" t="s">
         <v>74</v>
       </c>
@@ -5088,7 +5124,7 @@
         <v>659</v>
       </c>
     </row>
-    <row r="63" spans="1:14">
+    <row r="63" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A63" t="s">
         <v>75</v>
       </c>
@@ -5132,7 +5168,7 @@
         <v>659</v>
       </c>
     </row>
-    <row r="64" spans="1:14">
+    <row r="64" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A64" t="s">
         <v>76</v>
       </c>
@@ -5176,7 +5212,7 @@
         <v>659</v>
       </c>
     </row>
-    <row r="65" spans="1:14">
+    <row r="65" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A65" t="s">
         <v>77</v>
       </c>
@@ -5220,7 +5256,7 @@
         <v>659</v>
       </c>
     </row>
-    <row r="66" spans="1:14">
+    <row r="66" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A66" t="s">
         <v>78</v>
       </c>
@@ -5264,7 +5300,7 @@
         <v>659</v>
       </c>
     </row>
-    <row r="67" spans="1:14">
+    <row r="67" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A67" t="s">
         <v>79</v>
       </c>
@@ -5308,7 +5344,7 @@
         <v>659</v>
       </c>
     </row>
-    <row r="68" spans="1:14">
+    <row r="68" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A68" t="s">
         <v>80</v>
       </c>
@@ -5352,7 +5388,7 @@
         <v>659</v>
       </c>
     </row>
-    <row r="69" spans="1:14">
+    <row r="69" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A69" t="s">
         <v>81</v>
       </c>
@@ -5396,7 +5432,7 @@
         <v>659</v>
       </c>
     </row>
-    <row r="70" spans="1:14">
+    <row r="70" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A70" t="s">
         <v>82</v>
       </c>
@@ -5440,7 +5476,7 @@
         <v>659</v>
       </c>
     </row>
-    <row r="71" spans="1:14">
+    <row r="71" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A71" t="s">
         <v>83</v>
       </c>
@@ -5484,7 +5520,7 @@
         <v>659</v>
       </c>
     </row>
-    <row r="72" spans="1:14">
+    <row r="72" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A72" t="s">
         <v>84</v>
       </c>
@@ -5528,7 +5564,7 @@
         <v>659</v>
       </c>
     </row>
-    <row r="73" spans="1:14">
+    <row r="73" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A73" t="s">
         <v>85</v>
       </c>
@@ -5572,7 +5608,7 @@
         <v>659</v>
       </c>
     </row>
-    <row r="74" spans="1:14">
+    <row r="74" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A74" t="s">
         <v>86</v>
       </c>
@@ -5616,7 +5652,7 @@
         <v>659</v>
       </c>
     </row>
-    <row r="75" spans="1:14">
+    <row r="75" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A75" t="s">
         <v>87</v>
       </c>
@@ -5660,7 +5696,7 @@
         <v>659</v>
       </c>
     </row>
-    <row r="76" spans="1:14">
+    <row r="76" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A76" t="s">
         <v>88</v>
       </c>
@@ -5704,7 +5740,7 @@
         <v>659</v>
       </c>
     </row>
-    <row r="77" spans="1:14">
+    <row r="77" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A77" t="s">
         <v>89</v>
       </c>
@@ -5748,7 +5784,7 @@
         <v>659</v>
       </c>
     </row>
-    <row r="78" spans="1:14">
+    <row r="78" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A78" t="s">
         <v>90</v>
       </c>
@@ -5792,7 +5828,7 @@
         <v>659</v>
       </c>
     </row>
-    <row r="79" spans="1:14">
+    <row r="79" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A79" t="s">
         <v>91</v>
       </c>
@@ -5836,7 +5872,7 @@
         <v>659</v>
       </c>
     </row>
-    <row r="80" spans="1:14">
+    <row r="80" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A80" t="s">
         <v>92</v>
       </c>
@@ -5880,7 +5916,7 @@
         <v>659</v>
       </c>
     </row>
-    <row r="81" spans="1:14">
+    <row r="81" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A81" t="s">
         <v>93</v>
       </c>
@@ -5924,7 +5960,7 @@
         <v>659</v>
       </c>
     </row>
-    <row r="82" spans="1:14">
+    <row r="82" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A82" t="s">
         <v>94</v>
       </c>
@@ -5968,7 +6004,7 @@
         <v>659</v>
       </c>
     </row>
-    <row r="83" spans="1:14">
+    <row r="83" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A83" t="s">
         <v>95</v>
       </c>
@@ -6012,7 +6048,7 @@
         <v>659</v>
       </c>
     </row>
-    <row r="84" spans="1:14">
+    <row r="84" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A84" t="s">
         <v>96</v>
       </c>
@@ -6056,7 +6092,7 @@
         <v>659</v>
       </c>
     </row>
-    <row r="85" spans="1:14">
+    <row r="85" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A85" t="s">
         <v>97</v>
       </c>
@@ -6100,7 +6136,7 @@
         <v>659</v>
       </c>
     </row>
-    <row r="86" spans="1:14">
+    <row r="86" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A86" t="s">
         <v>98</v>
       </c>
@@ -6144,7 +6180,7 @@
         <v>659</v>
       </c>
     </row>
-    <row r="87" spans="1:14">
+    <row r="87" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A87" t="s">
         <v>99</v>
       </c>
@@ -6188,7 +6224,7 @@
         <v>659</v>
       </c>
     </row>
-    <row r="88" spans="1:14">
+    <row r="88" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A88" t="s">
         <v>100</v>
       </c>
@@ -6232,7 +6268,7 @@
         <v>659</v>
       </c>
     </row>
-    <row r="89" spans="1:14">
+    <row r="89" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A89" t="s">
         <v>101</v>
       </c>
@@ -6276,7 +6312,7 @@
         <v>659</v>
       </c>
     </row>
-    <row r="90" spans="1:14">
+    <row r="90" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A90" t="s">
         <v>102</v>
       </c>
@@ -6320,7 +6356,7 @@
         <v>659</v>
       </c>
     </row>
-    <row r="91" spans="1:14">
+    <row r="91" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A91" t="s">
         <v>103</v>
       </c>
@@ -6364,7 +6400,7 @@
         <v>659</v>
       </c>
     </row>
-    <row r="92" spans="1:14">
+    <row r="92" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A92" t="s">
         <v>104</v>
       </c>
@@ -6408,7 +6444,7 @@
         <v>659</v>
       </c>
     </row>
-    <row r="93" spans="1:14">
+    <row r="93" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A93" t="s">
         <v>105</v>
       </c>
@@ -6452,7 +6488,7 @@
         <v>659</v>
       </c>
     </row>
-    <row r="94" spans="1:14">
+    <row r="94" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A94" t="s">
         <v>106</v>
       </c>
@@ -6496,7 +6532,7 @@
         <v>659</v>
       </c>
     </row>
-    <row r="95" spans="1:14">
+    <row r="95" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A95" t="s">
         <v>107</v>
       </c>
@@ -6540,7 +6576,7 @@
         <v>659</v>
       </c>
     </row>
-    <row r="96" spans="1:14">
+    <row r="96" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A96" t="s">
         <v>108</v>
       </c>
@@ -6584,7 +6620,7 @@
         <v>659</v>
       </c>
     </row>
-    <row r="97" spans="1:14">
+    <row r="97" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A97" t="s">
         <v>109</v>
       </c>
@@ -6628,7 +6664,7 @@
         <v>659</v>
       </c>
     </row>
-    <row r="98" spans="1:14">
+    <row r="98" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A98" t="s">
         <v>110</v>
       </c>
@@ -6672,7 +6708,7 @@
         <v>659</v>
       </c>
     </row>
-    <row r="99" spans="1:14">
+    <row r="99" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A99" t="s">
         <v>111</v>
       </c>
@@ -6716,7 +6752,7 @@
         <v>659</v>
       </c>
     </row>
-    <row r="100" spans="1:14">
+    <row r="100" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A100" t="s">
         <v>112</v>
       </c>
@@ -6760,7 +6796,7 @@
         <v>659</v>
       </c>
     </row>
-    <row r="101" spans="1:14">
+    <row r="101" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A101" t="s">
         <v>113</v>
       </c>
@@ -6804,7 +6840,7 @@
         <v>659</v>
       </c>
     </row>
-    <row r="102" spans="1:14">
+    <row r="102" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A102" t="s">
         <v>114</v>
       </c>
@@ -6848,7 +6884,7 @@
         <v>659</v>
       </c>
     </row>
-    <row r="103" spans="1:14">
+    <row r="103" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A103" t="s">
         <v>115</v>
       </c>
@@ -6892,7 +6928,7 @@
         <v>659</v>
       </c>
     </row>
-    <row r="104" spans="1:14">
+    <row r="104" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A104" t="s">
         <v>116</v>
       </c>
@@ -6936,7 +6972,7 @@
         <v>659</v>
       </c>
     </row>
-    <row r="105" spans="1:14">
+    <row r="105" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A105" t="s">
         <v>117</v>
       </c>
@@ -6980,7 +7016,7 @@
         <v>659</v>
       </c>
     </row>
-    <row r="106" spans="1:14">
+    <row r="106" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A106" t="s">
         <v>118</v>
       </c>
@@ -7024,7 +7060,7 @@
         <v>659</v>
       </c>
     </row>
-    <row r="107" spans="1:14">
+    <row r="107" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A107" t="s">
         <v>119</v>
       </c>
@@ -7068,7 +7104,7 @@
         <v>659</v>
       </c>
     </row>
-    <row r="108" spans="1:14">
+    <row r="108" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A108" t="s">
         <v>120</v>
       </c>
@@ -7112,7 +7148,7 @@
         <v>659</v>
       </c>
     </row>
-    <row r="109" spans="1:14">
+    <row r="109" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A109" t="s">
         <v>121</v>
       </c>
@@ -7156,7 +7192,7 @@
         <v>659</v>
       </c>
     </row>
-    <row r="110" spans="1:14">
+    <row r="110" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A110" t="s">
         <v>122</v>
       </c>
@@ -7200,7 +7236,7 @@
         <v>659</v>
       </c>
     </row>
-    <row r="111" spans="1:14">
+    <row r="111" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A111" t="s">
         <v>123</v>
       </c>
@@ -7244,7 +7280,7 @@
         <v>659</v>
       </c>
     </row>
-    <row r="112" spans="1:14">
+    <row r="112" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A112" t="s">
         <v>124</v>
       </c>
@@ -7288,7 +7324,7 @@
         <v>659</v>
       </c>
     </row>
-    <row r="113" spans="1:14">
+    <row r="113" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A113" t="s">
         <v>125</v>
       </c>
@@ -7332,7 +7368,7 @@
         <v>659</v>
       </c>
     </row>
-    <row r="114" spans="1:14">
+    <row r="114" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A114" t="s">
         <v>126</v>
       </c>
@@ -7376,7 +7412,7 @@
         <v>659</v>
       </c>
     </row>
-    <row r="115" spans="1:14">
+    <row r="115" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A115" t="s">
         <v>127</v>
       </c>
@@ -7420,7 +7456,7 @@
         <v>659</v>
       </c>
     </row>
-    <row r="116" spans="1:14">
+    <row r="116" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A116" t="s">
         <v>128</v>
       </c>
@@ -7464,7 +7500,7 @@
         <v>659</v>
       </c>
     </row>
-    <row r="117" spans="1:14">
+    <row r="117" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A117" t="s">
         <v>129</v>
       </c>
@@ -7508,7 +7544,7 @@
         <v>659</v>
       </c>
     </row>
-    <row r="118" spans="1:14">
+    <row r="118" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A118" t="s">
         <v>130</v>
       </c>
@@ -7552,7 +7588,7 @@
         <v>659</v>
       </c>
     </row>
-    <row r="119" spans="1:14">
+    <row r="119" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A119" t="s">
         <v>131</v>
       </c>
@@ -7596,7 +7632,7 @@
         <v>659</v>
       </c>
     </row>
-    <row r="120" spans="1:14">
+    <row r="120" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A120" t="s">
         <v>132</v>
       </c>
@@ -7640,7 +7676,7 @@
         <v>659</v>
       </c>
     </row>
-    <row r="121" spans="1:14">
+    <row r="121" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A121" t="s">
         <v>133</v>
       </c>
@@ -7684,7 +7720,7 @@
         <v>659</v>
       </c>
     </row>
-    <row r="122" spans="1:14">
+    <row r="122" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A122" t="s">
         <v>134</v>
       </c>
@@ -7728,7 +7764,7 @@
         <v>659</v>
       </c>
     </row>
-    <row r="123" spans="1:14">
+    <row r="123" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A123" t="s">
         <v>135</v>
       </c>
@@ -7772,7 +7808,7 @@
         <v>659</v>
       </c>
     </row>
-    <row r="124" spans="1:14">
+    <row r="124" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A124" t="s">
         <v>136</v>
       </c>
@@ -7816,7 +7852,7 @@
         <v>659</v>
       </c>
     </row>
-    <row r="125" spans="1:14">
+    <row r="125" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A125" t="s">
         <v>137</v>
       </c>
@@ -7860,7 +7896,7 @@
         <v>659</v>
       </c>
     </row>
-    <row r="126" spans="1:14">
+    <row r="126" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A126" t="s">
         <v>138</v>
       </c>
@@ -7904,7 +7940,7 @@
         <v>659</v>
       </c>
     </row>
-    <row r="127" spans="1:14">
+    <row r="127" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A127" t="s">
         <v>139</v>
       </c>
@@ -7948,7 +7984,7 @@
         <v>659</v>
       </c>
     </row>
-    <row r="128" spans="1:14">
+    <row r="128" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A128" t="s">
         <v>140</v>
       </c>
@@ -7992,7 +8028,7 @@
         <v>659</v>
       </c>
     </row>
-    <row r="129" spans="1:14">
+    <row r="129" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A129" t="s">
         <v>141</v>
       </c>
@@ -8036,7 +8072,7 @@
         <v>659</v>
       </c>
     </row>
-    <row r="130" spans="1:14">
+    <row r="130" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A130" t="s">
         <v>142</v>
       </c>
@@ -8080,7 +8116,7 @@
         <v>659</v>
       </c>
     </row>
-    <row r="131" spans="1:14">
+    <row r="131" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A131" t="s">
         <v>143</v>
       </c>
@@ -8124,7 +8160,7 @@
         <v>659</v>
       </c>
     </row>
-    <row r="132" spans="1:14">
+    <row r="132" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A132" t="s">
         <v>144</v>
       </c>
@@ -8168,7 +8204,7 @@
         <v>659</v>
       </c>
     </row>
-    <row r="133" spans="1:14">
+    <row r="133" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A133" t="s">
         <v>145</v>
       </c>
@@ -8212,7 +8248,7 @@
         <v>659</v>
       </c>
     </row>
-    <row r="134" spans="1:14">
+    <row r="134" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A134" t="s">
         <v>146</v>
       </c>
@@ -8256,7 +8292,7 @@
         <v>659</v>
       </c>
     </row>
-    <row r="135" spans="1:14">
+    <row r="135" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A135" t="s">
         <v>147</v>
       </c>
@@ -8300,7 +8336,7 @@
         <v>659</v>
       </c>
     </row>
-    <row r="136" spans="1:14">
+    <row r="136" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A136" t="s">
         <v>148</v>
       </c>
@@ -8344,7 +8380,7 @@
         <v>659</v>
       </c>
     </row>
-    <row r="137" spans="1:14">
+    <row r="137" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A137" t="s">
         <v>149</v>
       </c>
@@ -8388,7 +8424,7 @@
         <v>659</v>
       </c>
     </row>
-    <row r="138" spans="1:14">
+    <row r="138" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A138" t="s">
         <v>150</v>
       </c>
@@ -8432,7 +8468,7 @@
         <v>659</v>
       </c>
     </row>
-    <row r="139" spans="1:14">
+    <row r="139" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A139" t="s">
         <v>151</v>
       </c>
@@ -8476,7 +8512,7 @@
         <v>659</v>
       </c>
     </row>
-    <row r="140" spans="1:14">
+    <row r="140" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A140" t="s">
         <v>152</v>
       </c>
@@ -8520,7 +8556,7 @@
         <v>659</v>
       </c>
     </row>
-    <row r="141" spans="1:14">
+    <row r="141" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A141" t="s">
         <v>153</v>
       </c>
@@ -8564,7 +8600,7 @@
         <v>659</v>
       </c>
     </row>
-    <row r="142" spans="1:14">
+    <row r="142" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A142" t="s">
         <v>154</v>
       </c>
@@ -8608,7 +8644,7 @@
         <v>659</v>
       </c>
     </row>
-    <row r="143" spans="1:14">
+    <row r="143" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A143" t="s">
         <v>155</v>
       </c>
@@ -8652,7 +8688,7 @@
         <v>659</v>
       </c>
     </row>
-    <row r="144" spans="1:14">
+    <row r="144" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A144" t="s">
         <v>156</v>
       </c>
@@ -8696,7 +8732,7 @@
         <v>659</v>
       </c>
     </row>
-    <row r="145" spans="1:14">
+    <row r="145" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A145" t="s">
         <v>157</v>
       </c>
@@ -8740,7 +8776,7 @@
         <v>659</v>
       </c>
     </row>
-    <row r="146" spans="1:14">
+    <row r="146" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A146" t="s">
         <v>158</v>
       </c>
@@ -8784,7 +8820,7 @@
         <v>659</v>
       </c>
     </row>
-    <row r="147" spans="1:14">
+    <row r="147" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A147" t="s">
         <v>159</v>
       </c>
@@ -8828,7 +8864,7 @@
         <v>659</v>
       </c>
     </row>
-    <row r="148" spans="1:14">
+    <row r="148" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A148" t="s">
         <v>160</v>
       </c>
@@ -8872,7 +8908,7 @@
         <v>659</v>
       </c>
     </row>
-    <row r="149" spans="1:14">
+    <row r="149" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A149" t="s">
         <v>161</v>
       </c>
@@ -8916,7 +8952,7 @@
         <v>659</v>
       </c>
     </row>
-    <row r="150" spans="1:14">
+    <row r="150" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A150" t="s">
         <v>162</v>
       </c>
@@ -8960,7 +8996,7 @@
         <v>659</v>
       </c>
     </row>
-    <row r="151" spans="1:14">
+    <row r="151" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A151" t="s">
         <v>163</v>
       </c>
@@ -9004,7 +9040,7 @@
         <v>659</v>
       </c>
     </row>
-    <row r="152" spans="1:14">
+    <row r="152" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A152" t="s">
         <v>164</v>
       </c>
@@ -9048,7 +9084,7 @@
         <v>659</v>
       </c>
     </row>
-    <row r="153" spans="1:14">
+    <row r="153" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A153" t="s">
         <v>165</v>
       </c>
@@ -9092,7 +9128,7 @@
         <v>659</v>
       </c>
     </row>
-    <row r="154" spans="1:14">
+    <row r="154" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A154" t="s">
         <v>166</v>
       </c>
@@ -9136,7 +9172,7 @@
         <v>659</v>
       </c>
     </row>
-    <row r="155" spans="1:14">
+    <row r="155" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A155" t="s">
         <v>167</v>
       </c>
@@ -9180,7 +9216,7 @@
         <v>659</v>
       </c>
     </row>
-    <row r="156" spans="1:14">
+    <row r="156" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A156" t="s">
         <v>168</v>
       </c>
@@ -9224,7 +9260,7 @@
         <v>659</v>
       </c>
     </row>
-    <row r="157" spans="1:14">
+    <row r="157" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A157" t="s">
         <v>169</v>
       </c>
@@ -9268,7 +9304,7 @@
         <v>659</v>
       </c>
     </row>
-    <row r="158" spans="1:14">
+    <row r="158" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A158" t="s">
         <v>170</v>
       </c>
@@ -9312,7 +9348,7 @@
         <v>659</v>
       </c>
     </row>
-    <row r="159" spans="1:14">
+    <row r="159" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A159" t="s">
         <v>171</v>
       </c>
@@ -9356,7 +9392,7 @@
         <v>659</v>
       </c>
     </row>
-    <row r="160" spans="1:14">
+    <row r="160" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A160" t="s">
         <v>172</v>
       </c>
@@ -9400,7 +9436,7 @@
         <v>659</v>
       </c>
     </row>
-    <row r="161" spans="1:14">
+    <row r="161" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A161" t="s">
         <v>173</v>
       </c>
@@ -9444,7 +9480,7 @@
         <v>659</v>
       </c>
     </row>
-    <row r="162" spans="1:14">
+    <row r="162" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A162" t="s">
         <v>174</v>
       </c>
@@ -9488,7 +9524,7 @@
         <v>659</v>
       </c>
     </row>
-    <row r="163" spans="1:14">
+    <row r="163" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A163" t="s">
         <v>175</v>
       </c>
@@ -9532,7 +9568,7 @@
         <v>659</v>
       </c>
     </row>
-    <row r="164" spans="1:14">
+    <row r="164" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A164" t="s">
         <v>176</v>
       </c>
@@ -9576,7 +9612,7 @@
         <v>659</v>
       </c>
     </row>
-    <row r="165" spans="1:14">
+    <row r="165" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A165" t="s">
         <v>177</v>
       </c>
@@ -9620,7 +9656,7 @@
         <v>659</v>
       </c>
     </row>
-    <row r="166" spans="1:14">
+    <row r="166" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A166" t="s">
         <v>178</v>
       </c>
@@ -9664,7 +9700,7 @@
         <v>659</v>
       </c>
     </row>
-    <row r="167" spans="1:14">
+    <row r="167" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A167" t="s">
         <v>179</v>
       </c>
@@ -9708,7 +9744,7 @@
         <v>659</v>
       </c>
     </row>
-    <row r="168" spans="1:14">
+    <row r="168" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A168" t="s">
         <v>180</v>
       </c>
@@ -9752,7 +9788,7 @@
         <v>659</v>
       </c>
     </row>
-    <row r="169" spans="1:14">
+    <row r="169" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A169" t="s">
         <v>181</v>
       </c>
@@ -9796,7 +9832,7 @@
         <v>659</v>
       </c>
     </row>
-    <row r="170" spans="1:14">
+    <row r="170" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A170" t="s">
         <v>182</v>
       </c>
@@ -9840,7 +9876,7 @@
         <v>659</v>
       </c>
     </row>
-    <row r="171" spans="1:14">
+    <row r="171" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A171" t="s">
         <v>183</v>
       </c>
@@ -9884,7 +9920,7 @@
         <v>659</v>
       </c>
     </row>
-    <row r="172" spans="1:14">
+    <row r="172" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A172" t="s">
         <v>184</v>
       </c>
@@ -9928,7 +9964,7 @@
         <v>659</v>
       </c>
     </row>
-    <row r="173" spans="1:14">
+    <row r="173" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A173" t="s">
         <v>185</v>
       </c>
@@ -9972,7 +10008,7 @@
         <v>659</v>
       </c>
     </row>
-    <row r="174" spans="1:14">
+    <row r="174" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A174" t="s">
         <v>186</v>
       </c>
@@ -10016,7 +10052,7 @@
         <v>659</v>
       </c>
     </row>
-    <row r="175" spans="1:14">
+    <row r="175" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A175" t="s">
         <v>187</v>
       </c>
@@ -10060,7 +10096,7 @@
         <v>659</v>
       </c>
     </row>
-    <row r="176" spans="1:14">
+    <row r="176" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A176" t="s">
         <v>188</v>
       </c>
@@ -10104,7 +10140,7 @@
         <v>659</v>
       </c>
     </row>
-    <row r="177" spans="1:14">
+    <row r="177" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A177" t="s">
         <v>189</v>
       </c>
@@ -10148,7 +10184,7 @@
         <v>659</v>
       </c>
     </row>
-    <row r="178" spans="1:14">
+    <row r="178" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A178" t="s">
         <v>190</v>
       </c>
@@ -10192,7 +10228,7 @@
         <v>659</v>
       </c>
     </row>
-    <row r="179" spans="1:14">
+    <row r="179" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A179" t="s">
         <v>191</v>
       </c>
@@ -10236,7 +10272,7 @@
         <v>659</v>
       </c>
     </row>
-    <row r="180" spans="1:14">
+    <row r="180" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A180" t="s">
         <v>192</v>
       </c>
@@ -10280,7 +10316,7 @@
         <v>659</v>
       </c>
     </row>
-    <row r="181" spans="1:14">
+    <row r="181" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A181" t="s">
         <v>193</v>
       </c>
@@ -10324,7 +10360,7 @@
         <v>659</v>
       </c>
     </row>
-    <row r="182" spans="1:14">
+    <row r="182" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A182" t="s">
         <v>194</v>
       </c>
@@ -10368,7 +10404,7 @@
         <v>659</v>
       </c>
     </row>
-    <row r="183" spans="1:14">
+    <row r="183" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A183" t="s">
         <v>195</v>
       </c>
@@ -10412,7 +10448,7 @@
         <v>659</v>
       </c>
     </row>
-    <row r="184" spans="1:14">
+    <row r="184" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A184" t="s">
         <v>196</v>
       </c>
@@ -10456,7 +10492,7 @@
         <v>660</v>
       </c>
     </row>
-    <row r="185" spans="1:14">
+    <row r="185" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A185" t="s">
         <v>197</v>
       </c>
@@ -10500,7 +10536,7 @@
         <v>660</v>
       </c>
     </row>
-    <row r="186" spans="1:14">
+    <row r="186" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A186" t="s">
         <v>198</v>
       </c>
@@ -10544,7 +10580,7 @@
         <v>660</v>
       </c>
     </row>
-    <row r="187" spans="1:14">
+    <row r="187" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A187" t="s">
         <v>198</v>
       </c>
@@ -10588,7 +10624,7 @@
         <v>660</v>
       </c>
     </row>
-    <row r="188" spans="1:14">
+    <row r="188" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A188" t="s">
         <v>199</v>
       </c>
@@ -10632,7 +10668,7 @@
         <v>660</v>
       </c>
     </row>
-    <row r="189" spans="1:14">
+    <row r="189" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A189" t="s">
         <v>200</v>
       </c>
@@ -10676,7 +10712,7 @@
         <v>660</v>
       </c>
     </row>
-    <row r="190" spans="1:14">
+    <row r="190" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A190" t="s">
         <v>201</v>
       </c>
@@ -10720,7 +10756,7 @@
         <v>660</v>
       </c>
     </row>
-    <row r="191" spans="1:14">
+    <row r="191" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A191" t="s">
         <v>202</v>
       </c>
@@ -10764,7 +10800,7 @@
         <v>660</v>
       </c>
     </row>
-    <row r="192" spans="1:14">
+    <row r="192" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A192" t="s">
         <v>203</v>
       </c>
@@ -10808,7 +10844,7 @@
         <v>660</v>
       </c>
     </row>
-    <row r="193" spans="1:14">
+    <row r="193" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A193" t="s">
         <v>204</v>
       </c>
@@ -10852,7 +10888,7 @@
         <v>660</v>
       </c>
     </row>
-    <row r="194" spans="1:14">
+    <row r="194" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A194" t="s">
         <v>205</v>
       </c>
@@ -10896,7 +10932,7 @@
         <v>660</v>
       </c>
     </row>
-    <row r="195" spans="1:14">
+    <row r="195" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A195" t="s">
         <v>206</v>
       </c>
@@ -10940,7 +10976,7 @@
         <v>660</v>
       </c>
     </row>
-    <row r="196" spans="1:14">
+    <row r="196" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A196" t="s">
         <v>207</v>
       </c>
@@ -10984,7 +11020,7 @@
         <v>660</v>
       </c>
     </row>
-    <row r="197" spans="1:14">
+    <row r="197" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A197" t="s">
         <v>208</v>
       </c>
@@ -11028,7 +11064,7 @@
         <v>660</v>
       </c>
     </row>
-    <row r="198" spans="1:14">
+    <row r="198" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A198" t="s">
         <v>209</v>
       </c>
@@ -11072,7 +11108,7 @@
         <v>660</v>
       </c>
     </row>
-    <row r="199" spans="1:14">
+    <row r="199" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A199" t="s">
         <v>210</v>
       </c>
@@ -11116,7 +11152,7 @@
         <v>660</v>
       </c>
     </row>
-    <row r="200" spans="1:14">
+    <row r="200" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A200" t="s">
         <v>211</v>
       </c>
@@ -11160,7 +11196,7 @@
         <v>660</v>
       </c>
     </row>
-    <row r="201" spans="1:14">
+    <row r="201" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A201" t="s">
         <v>212</v>
       </c>
@@ -11204,7 +11240,7 @@
         <v>660</v>
       </c>
     </row>
-    <row r="202" spans="1:14">
+    <row r="202" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A202" t="s">
         <v>213</v>
       </c>
@@ -11248,7 +11284,7 @@
         <v>660</v>
       </c>
     </row>
-    <row r="203" spans="1:14">
+    <row r="203" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A203" t="s">
         <v>214</v>
       </c>
@@ -11292,7 +11328,7 @@
         <v>660</v>
       </c>
     </row>
-    <row r="204" spans="1:14">
+    <row r="204" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A204" t="s">
         <v>215</v>
       </c>
@@ -11336,7 +11372,7 @@
         <v>660</v>
       </c>
     </row>
-    <row r="205" spans="1:14">
+    <row r="205" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A205" t="s">
         <v>216</v>
       </c>
@@ -11380,7 +11416,7 @@
         <v>660</v>
       </c>
     </row>
-    <row r="206" spans="1:14">
+    <row r="206" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A206" t="s">
         <v>217</v>
       </c>
@@ -11424,7 +11460,7 @@
         <v>660</v>
       </c>
     </row>
-    <row r="207" spans="1:14">
+    <row r="207" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A207" t="s">
         <v>218</v>
       </c>
@@ -11468,7 +11504,7 @@
         <v>660</v>
       </c>
     </row>
-    <row r="208" spans="1:14">
+    <row r="208" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A208" t="s">
         <v>219</v>
       </c>
@@ -11512,7 +11548,7 @@
         <v>660</v>
       </c>
     </row>
-    <row r="209" spans="1:14">
+    <row r="209" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A209" t="s">
         <v>220</v>
       </c>
@@ -11556,7 +11592,7 @@
         <v>660</v>
       </c>
     </row>
-    <row r="210" spans="1:14">
+    <row r="210" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A210" t="s">
         <v>221</v>
       </c>
@@ -11600,7 +11636,7 @@
         <v>660</v>
       </c>
     </row>
-    <row r="211" spans="1:14">
+    <row r="211" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A211" t="s">
         <v>222</v>
       </c>
@@ -11644,7 +11680,7 @@
         <v>660</v>
       </c>
     </row>
-    <row r="212" spans="1:14">
+    <row r="212" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A212" t="s">
         <v>223</v>
       </c>
@@ -11688,7 +11724,7 @@
         <v>660</v>
       </c>
     </row>
-    <row r="213" spans="1:14">
+    <row r="213" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A213" t="s">
         <v>224</v>
       </c>
@@ -11732,7 +11768,7 @@
         <v>660</v>
       </c>
     </row>
-    <row r="214" spans="1:14">
+    <row r="214" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A214" t="s">
         <v>225</v>
       </c>
@@ -11776,7 +11812,7 @@
         <v>660</v>
       </c>
     </row>
-    <row r="215" spans="1:14">
+    <row r="215" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A215" t="s">
         <v>226</v>
       </c>
@@ -11820,7 +11856,7 @@
         <v>660</v>
       </c>
     </row>
-    <row r="216" spans="1:14">
+    <row r="216" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A216" t="s">
         <v>227</v>
       </c>
@@ -11864,7 +11900,7 @@
         <v>660</v>
       </c>
     </row>
-    <row r="217" spans="1:14">
+    <row r="217" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A217" t="s">
         <v>228</v>
       </c>
@@ -11908,7 +11944,7 @@
         <v>660</v>
       </c>
     </row>
-    <row r="218" spans="1:14">
+    <row r="218" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A218" t="s">
         <v>229</v>
       </c>
@@ -11952,7 +11988,7 @@
         <v>660</v>
       </c>
     </row>
-    <row r="219" spans="1:14">
+    <row r="219" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A219" t="s">
         <v>230</v>
       </c>
@@ -11996,7 +12032,7 @@
         <v>660</v>
       </c>
     </row>
-    <row r="220" spans="1:14">
+    <row r="220" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A220" t="s">
         <v>231</v>
       </c>
@@ -12040,7 +12076,7 @@
         <v>660</v>
       </c>
     </row>
-    <row r="221" spans="1:14">
+    <row r="221" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A221" t="s">
         <v>232</v>
       </c>
@@ -12084,7 +12120,7 @@
         <v>660</v>
       </c>
     </row>
-    <row r="222" spans="1:14">
+    <row r="222" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A222" t="s">
         <v>233</v>
       </c>
@@ -12128,7 +12164,7 @@
         <v>660</v>
       </c>
     </row>
-    <row r="223" spans="1:14">
+    <row r="223" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A223" t="s">
         <v>234</v>
       </c>
@@ -12172,7 +12208,7 @@
         <v>660</v>
       </c>
     </row>
-    <row r="224" spans="1:14">
+    <row r="224" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A224" t="s">
         <v>235</v>
       </c>
@@ -12216,7 +12252,7 @@
         <v>660</v>
       </c>
     </row>
-    <row r="225" spans="1:14">
+    <row r="225" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A225" t="s">
         <v>236</v>
       </c>
@@ -12260,7 +12296,7 @@
         <v>660</v>
       </c>
     </row>
-    <row r="226" spans="1:14">
+    <row r="226" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A226" t="s">
         <v>237</v>
       </c>
@@ -12304,7 +12340,7 @@
         <v>660</v>
       </c>
     </row>
-    <row r="227" spans="1:14">
+    <row r="227" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A227" t="s">
         <v>238</v>
       </c>
@@ -12348,7 +12384,7 @@
         <v>660</v>
       </c>
     </row>
-    <row r="228" spans="1:14">
+    <row r="228" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A228" t="s">
         <v>239</v>
       </c>
@@ -12392,7 +12428,7 @@
         <v>660</v>
       </c>
     </row>
-    <row r="229" spans="1:14">
+    <row r="229" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A229" t="s">
         <v>240</v>
       </c>
@@ -12436,7 +12472,7 @@
         <v>660</v>
       </c>
     </row>
-    <row r="230" spans="1:14">
+    <row r="230" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A230" t="s">
         <v>241</v>
       </c>
@@ -12480,7 +12516,7 @@
         <v>660</v>
       </c>
     </row>
-    <row r="231" spans="1:14">
+    <row r="231" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A231" t="s">
         <v>242</v>
       </c>
@@ -12524,7 +12560,7 @@
         <v>660</v>
       </c>
     </row>
-    <row r="232" spans="1:14">
+    <row r="232" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A232" t="s">
         <v>243</v>
       </c>
@@ -12568,7 +12604,7 @@
         <v>660</v>
       </c>
     </row>
-    <row r="233" spans="1:14">
+    <row r="233" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A233" t="s">
         <v>244</v>
       </c>
@@ -12612,7 +12648,7 @@
         <v>660</v>
       </c>
     </row>
-    <row r="234" spans="1:14">
+    <row r="234" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A234" t="s">
         <v>245</v>
       </c>
@@ -12656,7 +12692,7 @@
         <v>660</v>
       </c>
     </row>
-    <row r="235" spans="1:14">
+    <row r="235" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A235" t="s">
         <v>246</v>
       </c>
@@ -12700,7 +12736,7 @@
         <v>660</v>
       </c>
     </row>
-    <row r="236" spans="1:14">
+    <row r="236" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A236" t="s">
         <v>247</v>
       </c>
@@ -12744,7 +12780,7 @@
         <v>660</v>
       </c>
     </row>
-    <row r="237" spans="1:14">
+    <row r="237" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A237" t="s">
         <v>248</v>
       </c>
@@ -12788,7 +12824,7 @@
         <v>660</v>
       </c>
     </row>
-    <row r="238" spans="1:14">
+    <row r="238" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A238" t="s">
         <v>249</v>
       </c>
@@ -12832,7 +12868,7 @@
         <v>660</v>
       </c>
     </row>
-    <row r="239" spans="1:14">
+    <row r="239" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A239" t="s">
         <v>250</v>
       </c>
@@ -12876,7 +12912,7 @@
         <v>660</v>
       </c>
     </row>
-    <row r="240" spans="1:14">
+    <row r="240" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A240" t="s">
         <v>251</v>
       </c>
@@ -12920,7 +12956,7 @@
         <v>660</v>
       </c>
     </row>
-    <row r="241" spans="1:14">
+    <row r="241" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A241" t="s">
         <v>252</v>
       </c>
@@ -12964,7 +13000,7 @@
         <v>660</v>
       </c>
     </row>
-    <row r="242" spans="1:14">
+    <row r="242" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A242" t="s">
         <v>253</v>
       </c>
@@ -13008,7 +13044,7 @@
         <v>660</v>
       </c>
     </row>
-    <row r="243" spans="1:14">
+    <row r="243" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A243" t="s">
         <v>254</v>
       </c>
@@ -13052,7 +13088,7 @@
         <v>660</v>
       </c>
     </row>
-    <row r="244" spans="1:14">
+    <row r="244" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A244" t="s">
         <v>255</v>
       </c>
@@ -13096,7 +13132,7 @@
         <v>660</v>
       </c>
     </row>
-    <row r="245" spans="1:14">
+    <row r="245" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A245" t="s">
         <v>256</v>
       </c>
@@ -13140,7 +13176,7 @@
         <v>660</v>
       </c>
     </row>
-    <row r="246" spans="1:14">
+    <row r="246" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A246" t="s">
         <v>257</v>
       </c>
@@ -13184,7 +13220,7 @@
         <v>660</v>
       </c>
     </row>
-    <row r="247" spans="1:14">
+    <row r="247" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A247" t="s">
         <v>258</v>
       </c>
@@ -13228,7 +13264,7 @@
         <v>660</v>
       </c>
     </row>
-    <row r="248" spans="1:14">
+    <row r="248" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A248" t="s">
         <v>259</v>
       </c>
@@ -13272,7 +13308,7 @@
         <v>660</v>
       </c>
     </row>
-    <row r="249" spans="1:14">
+    <row r="249" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A249" t="s">
         <v>260</v>
       </c>
@@ -13316,7 +13352,7 @@
         <v>660</v>
       </c>
     </row>
-    <row r="250" spans="1:14">
+    <row r="250" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A250" t="s">
         <v>261</v>
       </c>
@@ -13360,7 +13396,7 @@
         <v>660</v>
       </c>
     </row>
-    <row r="251" spans="1:14">
+    <row r="251" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A251" t="s">
         <v>262</v>
       </c>
@@ -13404,7 +13440,7 @@
         <v>660</v>
       </c>
     </row>
-    <row r="252" spans="1:14">
+    <row r="252" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A252" t="s">
         <v>263</v>
       </c>
@@ -13448,7 +13484,7 @@
         <v>660</v>
       </c>
     </row>
-    <row r="253" spans="1:14">
+    <row r="253" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A253" t="s">
         <v>264</v>
       </c>
@@ -13492,7 +13528,7 @@
         <v>660</v>
       </c>
     </row>
-    <row r="254" spans="1:14">
+    <row r="254" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A254" t="s">
         <v>265</v>
       </c>
@@ -13536,7 +13572,7 @@
         <v>660</v>
       </c>
     </row>
-    <row r="255" spans="1:14">
+    <row r="255" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A255" t="s">
         <v>266</v>
       </c>
@@ -13580,7 +13616,7 @@
         <v>660</v>
       </c>
     </row>
-    <row r="256" spans="1:14">
+    <row r="256" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A256" t="s">
         <v>267</v>
       </c>
@@ -13624,7 +13660,7 @@
         <v>660</v>
       </c>
     </row>
-    <row r="257" spans="1:14">
+    <row r="257" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A257" t="s">
         <v>268</v>
       </c>
@@ -13668,7 +13704,7 @@
         <v>660</v>
       </c>
     </row>
-    <row r="258" spans="1:14">
+    <row r="258" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A258" t="s">
         <v>269</v>
       </c>
@@ -13712,7 +13748,7 @@
         <v>660</v>
       </c>
     </row>
-    <row r="259" spans="1:14">
+    <row r="259" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A259" t="s">
         <v>270</v>
       </c>
@@ -13756,7 +13792,7 @@
         <v>660</v>
       </c>
     </row>
-    <row r="260" spans="1:14">
+    <row r="260" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A260" t="s">
         <v>271</v>
       </c>
@@ -13800,7 +13836,7 @@
         <v>660</v>
       </c>
     </row>
-    <row r="261" spans="1:14">
+    <row r="261" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A261" t="s">
         <v>272</v>
       </c>
@@ -13844,7 +13880,7 @@
         <v>660</v>
       </c>
     </row>
-    <row r="262" spans="1:14">
+    <row r="262" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A262" t="s">
         <v>273</v>
       </c>
@@ -13888,7 +13924,7 @@
         <v>660</v>
       </c>
     </row>
-    <row r="263" spans="1:14">
+    <row r="263" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A263" t="s">
         <v>274</v>
       </c>
@@ -13932,7 +13968,7 @@
         <v>660</v>
       </c>
     </row>
-    <row r="264" spans="1:14">
+    <row r="264" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A264" t="s">
         <v>275</v>
       </c>
@@ -13976,7 +14012,7 @@
         <v>660</v>
       </c>
     </row>
-    <row r="265" spans="1:14">
+    <row r="265" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A265" t="s">
         <v>276</v>
       </c>
@@ -14020,7 +14056,7 @@
         <v>660</v>
       </c>
     </row>
-    <row r="266" spans="1:14">
+    <row r="266" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A266" t="s">
         <v>277</v>
       </c>
@@ -14064,7 +14100,7 @@
         <v>660</v>
       </c>
     </row>
-    <row r="267" spans="1:14">
+    <row r="267" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A267" t="s">
         <v>278</v>
       </c>
@@ -14108,7 +14144,7 @@
         <v>660</v>
       </c>
     </row>
-    <row r="268" spans="1:14">
+    <row r="268" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A268" t="s">
         <v>279</v>
       </c>
@@ -14152,7 +14188,7 @@
         <v>660</v>
       </c>
     </row>
-    <row r="269" spans="1:14">
+    <row r="269" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A269" t="s">
         <v>280</v>
       </c>
@@ -14196,7 +14232,7 @@
         <v>660</v>
       </c>
     </row>
-    <row r="270" spans="1:14">
+    <row r="270" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A270" t="s">
         <v>281</v>
       </c>
@@ -14240,7 +14276,7 @@
         <v>660</v>
       </c>
     </row>
-    <row r="271" spans="1:14">
+    <row r="271" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A271" t="s">
         <v>282</v>
       </c>
@@ -14284,7 +14320,7 @@
         <v>660</v>
       </c>
     </row>
-    <row r="272" spans="1:14">
+    <row r="272" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A272" t="s">
         <v>283</v>
       </c>
@@ -14328,7 +14364,7 @@
         <v>660</v>
       </c>
     </row>
-    <row r="273" spans="1:14">
+    <row r="273" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A273" t="s">
         <v>284</v>
       </c>
@@ -14372,7 +14408,7 @@
         <v>660</v>
       </c>
     </row>
-    <row r="274" spans="1:14">
+    <row r="274" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A274" t="s">
         <v>285</v>
       </c>
@@ -14416,7 +14452,7 @@
         <v>660</v>
       </c>
     </row>
-    <row r="275" spans="1:14">
+    <row r="275" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A275" t="s">
         <v>286</v>
       </c>
@@ -14460,7 +14496,7 @@
         <v>660</v>
       </c>
     </row>
-    <row r="276" spans="1:14">
+    <row r="276" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A276" t="s">
         <v>287</v>
       </c>
@@ -14504,7 +14540,7 @@
         <v>660</v>
       </c>
     </row>
-    <row r="277" spans="1:14">
+    <row r="277" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A277" t="s">
         <v>288</v>
       </c>
@@ -14548,7 +14584,7 @@
         <v>660</v>
       </c>
     </row>
-    <row r="278" spans="1:14">
+    <row r="278" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A278" t="s">
         <v>289</v>
       </c>
@@ -14592,7 +14628,7 @@
         <v>660</v>
       </c>
     </row>
-    <row r="279" spans="1:14">
+    <row r="279" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A279" t="s">
         <v>290</v>
       </c>
@@ -14636,7 +14672,7 @@
         <v>660</v>
       </c>
     </row>
-    <row r="280" spans="1:14">
+    <row r="280" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A280" t="s">
         <v>291</v>
       </c>
@@ -14680,7 +14716,7 @@
         <v>660</v>
       </c>
     </row>
-    <row r="281" spans="1:14">
+    <row r="281" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A281" t="s">
         <v>292</v>
       </c>
@@ -14724,7 +14760,7 @@
         <v>660</v>
       </c>
     </row>
-    <row r="282" spans="1:14">
+    <row r="282" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A282" t="s">
         <v>293</v>
       </c>
@@ -14768,7 +14804,7 @@
         <v>660</v>
       </c>
     </row>
-    <row r="283" spans="1:14">
+    <row r="283" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A283" t="s">
         <v>294</v>
       </c>
@@ -14812,7 +14848,7 @@
         <v>660</v>
       </c>
     </row>
-    <row r="284" spans="1:14">
+    <row r="284" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A284" t="s">
         <v>295</v>
       </c>
@@ -14856,7 +14892,7 @@
         <v>660</v>
       </c>
     </row>
-    <row r="285" spans="1:14">
+    <row r="285" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A285" t="s">
         <v>296</v>
       </c>
@@ -14900,7 +14936,7 @@
         <v>660</v>
       </c>
     </row>
-    <row r="286" spans="1:14">
+    <row r="286" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A286" t="s">
         <v>297</v>
       </c>
@@ -14944,7 +14980,7 @@
         <v>660</v>
       </c>
     </row>
-    <row r="287" spans="1:14">
+    <row r="287" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A287" t="s">
         <v>298</v>
       </c>
@@ -14988,7 +15024,7 @@
         <v>660</v>
       </c>
     </row>
-    <row r="288" spans="1:14">
+    <row r="288" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A288" t="s">
         <v>299</v>
       </c>
@@ -15032,7 +15068,7 @@
         <v>660</v>
       </c>
     </row>
-    <row r="289" spans="1:14">
+    <row r="289" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A289" t="s">
         <v>300</v>
       </c>
@@ -15076,7 +15112,7 @@
         <v>660</v>
       </c>
     </row>
-    <row r="290" spans="1:14">
+    <row r="290" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A290" t="s">
         <v>301</v>
       </c>
@@ -15120,7 +15156,7 @@
         <v>660</v>
       </c>
     </row>
-    <row r="291" spans="1:14">
+    <row r="291" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A291" t="s">
         <v>302</v>
       </c>
@@ -15164,7 +15200,7 @@
         <v>660</v>
       </c>
     </row>
-    <row r="292" spans="1:14">
+    <row r="292" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A292" t="s">
         <v>303</v>
       </c>
@@ -15208,7 +15244,7 @@
         <v>660</v>
       </c>
     </row>
-    <row r="293" spans="1:14">
+    <row r="293" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A293" t="s">
         <v>304</v>
       </c>
@@ -15252,7 +15288,7 @@
         <v>660</v>
       </c>
     </row>
-    <row r="294" spans="1:14">
+    <row r="294" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A294" t="s">
         <v>305</v>
       </c>
@@ -15296,7 +15332,7 @@
         <v>660</v>
       </c>
     </row>
-    <row r="295" spans="1:14">
+    <row r="295" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A295" t="s">
         <v>306</v>
       </c>
@@ -15340,7 +15376,7 @@
         <v>660</v>
       </c>
     </row>
-    <row r="296" spans="1:14">
+    <row r="296" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A296" t="s">
         <v>231</v>
       </c>
@@ -15384,7 +15420,7 @@
         <v>660</v>
       </c>
     </row>
-    <row r="297" spans="1:14">
+    <row r="297" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A297" t="s">
         <v>307</v>
       </c>
@@ -15428,7 +15464,7 @@
         <v>660</v>
       </c>
     </row>
-    <row r="298" spans="1:14">
+    <row r="298" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A298" t="s">
         <v>308</v>
       </c>
@@ -15472,7 +15508,7 @@
         <v>660</v>
       </c>
     </row>
-    <row r="299" spans="1:14">
+    <row r="299" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A299" t="s">
         <v>309</v>
       </c>
@@ -15516,7 +15552,7 @@
         <v>660</v>
       </c>
     </row>
-    <row r="300" spans="1:14">
+    <row r="300" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A300" t="s">
         <v>310</v>
       </c>
@@ -15560,7 +15596,7 @@
         <v>660</v>
       </c>
     </row>
-    <row r="301" spans="1:14">
+    <row r="301" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A301" t="s">
         <v>311</v>
       </c>
@@ -15604,7 +15640,7 @@
         <v>660</v>
       </c>
     </row>
-    <row r="302" spans="1:14">
+    <row r="302" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A302" t="s">
         <v>312</v>
       </c>
@@ -15648,7 +15684,7 @@
         <v>660</v>
       </c>
     </row>
-    <row r="303" spans="1:14">
+    <row r="303" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A303" t="s">
         <v>313</v>
       </c>
@@ -15692,7 +15728,7 @@
         <v>660</v>
       </c>
     </row>
-    <row r="304" spans="1:14">
+    <row r="304" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A304" t="s">
         <v>314</v>
       </c>
@@ -15736,7 +15772,7 @@
         <v>660</v>
       </c>
     </row>
-    <row r="305" spans="1:14">
+    <row r="305" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A305" t="s">
         <v>315</v>
       </c>
@@ -15780,7 +15816,7 @@
         <v>660</v>
       </c>
     </row>
-    <row r="306" spans="1:14">
+    <row r="306" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A306" t="s">
         <v>316</v>
       </c>
@@ -15824,7 +15860,7 @@
         <v>660</v>
       </c>
     </row>
-    <row r="307" spans="1:14">
+    <row r="307" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A307" t="s">
         <v>317</v>
       </c>
@@ -15868,7 +15904,7 @@
         <v>660</v>
       </c>
     </row>
-    <row r="308" spans="1:14">
+    <row r="308" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A308" t="s">
         <v>318</v>
       </c>
@@ -15912,7 +15948,7 @@
         <v>660</v>
       </c>
     </row>
-    <row r="309" spans="1:14">
+    <row r="309" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A309" t="s">
         <v>319</v>
       </c>
@@ -15956,7 +15992,7 @@
         <v>660</v>
       </c>
     </row>
-    <row r="310" spans="1:14">
+    <row r="310" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A310" t="s">
         <v>320</v>
       </c>
@@ -16000,7 +16036,7 @@
         <v>660</v>
       </c>
     </row>
-    <row r="311" spans="1:14">
+    <row r="311" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A311" t="s">
         <v>321</v>
       </c>
@@ -16044,7 +16080,7 @@
         <v>660</v>
       </c>
     </row>
-    <row r="312" spans="1:14">
+    <row r="312" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A312" t="s">
         <v>322</v>
       </c>
@@ -16088,7 +16124,7 @@
         <v>660</v>
       </c>
     </row>
-    <row r="313" spans="1:14">
+    <row r="313" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A313" t="s">
         <v>323</v>
       </c>
@@ -16132,7 +16168,7 @@
         <v>660</v>
       </c>
     </row>
-    <row r="314" spans="1:14">
+    <row r="314" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A314" t="s">
         <v>324</v>
       </c>
@@ -16176,7 +16212,7 @@
         <v>660</v>
       </c>
     </row>
-    <row r="315" spans="1:14">
+    <row r="315" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A315" t="s">
         <v>325</v>
       </c>
@@ -16220,7 +16256,7 @@
         <v>660</v>
       </c>
     </row>
-    <row r="316" spans="1:14">
+    <row r="316" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A316" t="s">
         <v>326</v>
       </c>
@@ -16264,7 +16300,7 @@
         <v>660</v>
       </c>
     </row>
-    <row r="317" spans="1:14">
+    <row r="317" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A317" t="s">
         <v>327</v>
       </c>
@@ -16308,7 +16344,7 @@
         <v>660</v>
       </c>
     </row>
-    <row r="318" spans="1:14">
+    <row r="318" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A318" t="s">
         <v>328</v>
       </c>
@@ -16352,7 +16388,7 @@
         <v>660</v>
       </c>
     </row>
-    <row r="319" spans="1:14">
+    <row r="319" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A319" t="s">
         <v>329</v>
       </c>
@@ -16396,7 +16432,7 @@
         <v>660</v>
       </c>
     </row>
-    <row r="320" spans="1:14">
+    <row r="320" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A320" t="s">
         <v>330</v>
       </c>
@@ -16440,7 +16476,7 @@
         <v>660</v>
       </c>
     </row>
-    <row r="321" spans="1:14">
+    <row r="321" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A321" t="s">
         <v>331</v>
       </c>
@@ -16484,7 +16520,7 @@
         <v>660</v>
       </c>
     </row>
-    <row r="322" spans="1:14">
+    <row r="322" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A322" t="s">
         <v>332</v>
       </c>
@@ -16528,7 +16564,7 @@
         <v>660</v>
       </c>
     </row>
-    <row r="323" spans="1:14">
+    <row r="323" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A323" t="s">
         <v>333</v>
       </c>
